--- a/ja/application_framework/application_framework/web/getting_started/images/popup/images.xlsx
+++ b/ja/application_framework/application_framework/web/getting_started/images/popup/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\ja\application_framework\application_framework\web\getting_started\images\popup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87030C16-8CC9-416F-B536-3E78D2E53D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="3345" yWindow="645" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客登録" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,6 +76,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -91,7 +100,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvPr id="48" name="角丸四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -141,216 +156,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>89784</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="361950" y="228600"/>
-          <a:ext cx="10058400" cy="2261484"/>
-          <a:chOff x="361950" y="228600"/>
-          <a:chExt cx="10058400" cy="2261484"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="図 13"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="361950" y="228600"/>
-            <a:ext cx="10058400" cy="2261484"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9458324" y="333374"/>
-            <a:ext cx="933451" cy="466726"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>143885</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85979</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="グループ化 20"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="514350" y="3067050"/>
-          <a:ext cx="7230485" cy="1819529"/>
-          <a:chOff x="514350" y="3067050"/>
-          <a:chExt cx="7230485" cy="1819529"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="図 19"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="514350" y="3067050"/>
-            <a:ext cx="7230485" cy="1819529"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2847975" y="4305301"/>
-            <a:ext cx="428625" cy="361950"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>134229</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>29312</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="5210175"/>
+          <a:off x="238125" y="6581775"/>
           <a:ext cx="6296904" cy="5277587"/>
           <a:chOff x="238125" y="5210175"/>
           <a:chExt cx="6296904" cy="5277587"/>
@@ -358,13 +187,19 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -387,7 +222,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -428,53 +269,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>181852</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>19436</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>58414</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>162378</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10"/>
+        <xdr:cNvPr id="32" name="グループ化 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949D743E-50E5-4A72-94A9-916D6B9E9491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="304800" y="10629900"/>
-          <a:ext cx="6277852" cy="2762636"/>
-          <a:chOff x="304800" y="10629900"/>
-          <a:chExt cx="6277852" cy="2762636"/>
+          <a:off x="400050" y="171450"/>
+          <a:ext cx="9059539" cy="3248478"/>
+          <a:chOff x="3200400" y="2743200"/>
+          <a:chExt cx="9059539" cy="3248478"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5"/>
+          <xdr:cNvPr id="33" name="図 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33719F6E-7632-A83D-0504-4879250564ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="304800" y="10629900"/>
-            <a:ext cx="6277852" cy="2762636"/>
+            <a:off x="3200400" y="2743200"/>
+            <a:ext cx="9059539" cy="3248478"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -483,13 +330,235 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419D7557-DAAE-B2B1-0AC8-240A621F0781}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="400051" y="12792075"/>
-            <a:ext cx="314326" cy="295274"/>
+            <a:off x="11468100" y="2867025"/>
+            <a:ext cx="762001" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>58414</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104957</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D9B05B-7505-4D37-AE24-08CC7AEE729D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="400050" y="3771900"/>
+          <a:ext cx="9059539" cy="1305107"/>
+          <a:chOff x="8201025" y="4800600"/>
+          <a:chExt cx="9059539" cy="1305107"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="図 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA57FA00-4014-7FD4-CD70-40C7FBA68C71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8201025" y="4800600"/>
+            <a:ext cx="9059539" cy="1305107"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3669D4DB-ED02-8763-80EE-7A9DDD7A6344}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10591800" y="5619750"/>
+            <a:ext cx="428625" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>153091</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>287</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6D7769-188E-4629-982B-EB50FF2C4178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="400050" y="12001500"/>
+          <a:ext cx="4953691" cy="2057687"/>
+          <a:chOff x="7000875" y="13544550"/>
+          <a:chExt cx="4953691" cy="2057687"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="52" name="図 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D924CB79-278B-98B8-9E7C-6681A13F7CDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7000875" y="13544550"/>
+            <a:ext cx="4953691" cy="2057687"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDA3B94-4C10-CBB0-547A-E18E903E5691}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7010399" y="14649450"/>
+            <a:ext cx="333375" cy="295274"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -525,52 +594,58 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>181937</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>9754</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>67941</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>104957</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="60" name="グループ化 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A57C38-A849-4AA7-A961-AAA4222613F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="295275" y="14144625"/>
-          <a:ext cx="6887537" cy="1638529"/>
-          <a:chOff x="466725" y="14116050"/>
-          <a:chExt cx="6887537" cy="1638529"/>
+          <a:off x="200025" y="14401800"/>
+          <a:ext cx="9069066" cy="1305107"/>
+          <a:chOff x="400050" y="14230350"/>
+          <a:chExt cx="9069066" cy="1305107"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="23" name="図 22"/>
+          <xdr:cNvPr id="61" name="図 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5599CC88-2822-0CA7-DB9D-DD93835402A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="466725" y="14116050"/>
-            <a:ext cx="6887537" cy="1638529"/>
+            <a:off x="400050" y="14230350"/>
+            <a:ext cx="9069066" cy="1305107"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -579,13 +654,19 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvPr id="62" name="正方形/長方形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977ACAC3-83A9-C7E4-B8A4-C53DD9B5F29B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2647950" y="14439900"/>
-            <a:ext cx="2524125" cy="895350"/>
+            <a:off x="2800350" y="14287500"/>
+            <a:ext cx="6657975" cy="800100"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -622,9 +703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -662,7 +743,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -734,7 +815,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -907,12 +988,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AU97" sqref="AU97"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -924,7 +1003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
@@ -940,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
